--- a/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>793</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3787504.79</t>
+          <t>3798794.93</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1024</t>
+          <t>1025</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5803073.93</t>
+          <t>5819203.93</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>507</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4640906.78</t>
+          <t>4652636.78</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>188</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2008986.11</t>
+          <t>2053986.11</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3904,17 +3904,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>35</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>91074.00</t>
+          <t>93074.00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3951,17 +3951,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>226</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>645356.34</t>
+          <t>701456.34</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3998,17 +3998,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>111</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>345037.60</t>
+          <t>408140.60</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4045,17 +4045,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>131500.00</t>
+          <t>155000.00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4092,17 +4092,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>46150.00</t>
+          <t>22000.00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4139,37 +4139,37 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>102190.00</t>
+          <t>48150.00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4186,17 +4186,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>24000.00</t>
+          <t>102190.00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4211,12 +4211,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4238,12 +4238,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>15500.00</t>
+          <t>24000.00</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4258,12 +4258,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4280,37 +4280,37 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>429037.23</t>
+          <t>15500.00</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4327,17 +4327,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>114</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2808200.60</t>
+          <t>429037.23</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4352,12 +4352,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4374,17 +4374,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>521</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>473</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2266619.72</t>
+          <t>2808200.60</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4399,12 +4399,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4421,17 +4421,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>225</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>188</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1677703.67</t>
+          <t>2266619.72</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4446,12 +4446,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4468,17 +4468,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>72</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>738277.46</t>
+          <t>1677703.67</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4493,12 +4493,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4515,17 +4515,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>237767.35</t>
+          <t>738277.46</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4540,12 +4540,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4562,17 +4562,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>36000.00</t>
+          <t>237767.35</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4587,12 +4587,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -4609,37 +4609,37 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1417728.36</t>
+          <t>36000.00</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4656,17 +4656,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1115</t>
+          <t>293</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t>275</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>6098687.71</t>
+          <t>1417728.36</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4681,12 +4681,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4703,17 +4703,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>1115</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>1011</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>4733592.46</t>
+          <t>6098687.71</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4728,12 +4728,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4750,17 +4750,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>398</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2270043.41</t>
+          <t>4733592.46</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -4775,12 +4775,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4797,17 +4797,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>153</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1400581.59</t>
+          <t>2270043.41</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4822,12 +4822,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4844,17 +4844,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>470000.00</t>
+          <t>1400581.59</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4869,12 +4869,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4891,17 +4891,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>171991.00</t>
+          <t>470000.00</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -4938,37 +4938,37 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1945317.26</t>
+          <t>171991.00</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4985,17 +4985,17 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1417</t>
+          <t>401</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1304</t>
+          <t>377</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>7931327.86</t>
+          <t>1945317.26</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5010,12 +5010,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -5032,17 +5032,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>1417</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>1304</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4733881.32</t>
+          <t>7931327.86</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5057,12 +5057,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -5079,17 +5079,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>561</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>494</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2839361.36</t>
+          <t>4733881.32</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5104,12 +5104,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -5126,17 +5126,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>210</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>173</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1558490.25</t>
+          <t>2839361.36</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5151,12 +5151,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -5173,37 +5173,37 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1558490.25</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>380000.00</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>Occitanie</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -5220,17 +5220,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>283879.00</t>
+          <t>380000.00</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5245,12 +5245,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -5267,37 +5267,37 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>81</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>603045.72</t>
+          <t>283879.00</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -5314,17 +5314,17 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>118</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2710822.42</t>
+          <t>603045.72</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5339,12 +5339,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -5361,17 +5361,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>511</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>462</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2388636.83</t>
+          <t>2710822.42</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5386,12 +5386,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -5408,17 +5408,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>255</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>214</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1597577.26</t>
+          <t>2388636.83</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5433,12 +5433,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -5455,17 +5455,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>77</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>547274.88</t>
+          <t>1597577.26</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5480,12 +5480,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -5502,17 +5502,17 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>42260.00</t>
+          <t>547274.88</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -5549,37 +5549,37 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>1647551.43</t>
+          <t>42260.00</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -5596,17 +5596,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1771</t>
+          <t>444</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1666</t>
+          <t>426</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>7617984.91</t>
+          <t>1647551.43</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5621,12 +5621,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -5643,17 +5643,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>1771</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>1666</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>5215843.65</t>
+          <t>7617984.91</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -5668,12 +5668,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -5690,17 +5690,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>742</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>676</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>3508462.02</t>
+          <t>5215843.65</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -5715,12 +5715,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -5737,17 +5737,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>262</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>214</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>1375158.00</t>
+          <t>3508462.02</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -5762,12 +5762,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -5784,17 +5784,17 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>68</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>401903.00</t>
+          <t>1375158.00</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -5809,12 +5809,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -5831,35 +5831,82 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>401903.00</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>20 à 49 salariés</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>VOLET2</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>107</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>251456.16</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>NN</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>Etablissement non employeur</t>
         </is>

--- a/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -802,17 +802,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>496</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>441</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2674426.57</t>
+          <t>2890139.57</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>227</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1784465.91</t>
+          <t>2008003.64</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>899414.89</t>
+          <t>1021337.89</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>793</t>
+          <t>794</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3798794.93</t>
+          <t>3815114.93</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>385</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3303397.42</t>
+          <t>3324428.91</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2012100.47</t>
+          <t>2102100.47</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1176474.34</t>
+          <t>1221474.34</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>144000.00</t>
+          <t>189000.00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1025</t>
+          <t>1026</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5819203.93</t>
+          <t>5835085.93</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>512</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4652636.78</t>
+          <t>4821219.81</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>189</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2053986.11</t>
+          <t>2070594.11</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>933537.06</t>
+          <t>1055181.06</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5713</t>
+          <t>5714</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>24421567.70</t>
+          <t>24444042.70</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3146</t>
+          <t>3147</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>19377486.38</t>
+          <t>19420486.38</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1797881.18</t>
+          <t>1842881.18</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3810,17 +3810,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>95000.00</t>
+          <t>140000.00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">

--- a/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -802,17 +802,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>442</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2890139.57</t>
+          <t>2946256.06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -849,17 +849,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>199</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2008003.64</t>
+          <t>2173031.14</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1021337.89</t>
+          <t>1093249.89</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>443076.00</t>
+          <t>578777.00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>765874.58</t>
+          <t>788748.58</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1789,17 +1789,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>72</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>403748.00</t>
+          <t>468729.02</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1836,17 +1836,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>80000.00</t>
+          <t>125000.00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3810,17 +3810,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>140000.00</t>
+          <t>185000.00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4703,17 +4703,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1115</t>
+          <t>1116</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t>1012</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>6098687.71</t>
+          <t>6102866.71</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>194</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2270043.41</t>
+          <t>2315043.41</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">

--- a/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -520,17 +520,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>671</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>566</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6898275.49</t>
+          <t>6908275.49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1281092.60</t>
+          <t>1379797.91</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>386</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3324428.91</t>
+          <t>3350933.69</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1139</t>
+          <t>1140</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3758659.28</t>
+          <t>3803659.28</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5714</t>
+          <t>5716</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>24444042.70</t>
+          <t>24531453.78</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3147</t>
+          <t>3149</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>19420486.38</t>
+          <t>19489380.84</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3387,17 +3387,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1112</t>
+          <t>1116</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t>1012</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>8979676.14</t>
+          <t>9135015.17</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3434,17 +3434,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>286</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4277746.03</t>
+          <t>4380004.41</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1842881.18</t>
+          <t>1887881.18</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>488</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4733592.46</t>
+          <t>4743869.46</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
